--- a/documents/AppliedSciences/Basic_queries.xlsx
+++ b/documents/AppliedSciences/Basic_queries.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D732C3CA-8350-0741-AE58-5613C608EEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE9E37-C15D-FE4F-AAD8-D6484F209D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="7760" yWindow="8000" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$125:$A$130</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$124</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$125:$B$130</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$124</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$125:$C$130</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$90:$A$97</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$89</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$90:$B$97</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$89</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$90:$C$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -767,834 +767,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Long query, work price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$B$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$56:$A$63</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neo4J 4.1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Neo4J 4.1.3 CALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$B$56:$B$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6880</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DAB-4D42-B09C-497C7EACA6D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$C$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg indexed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$56:$A$63</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neo4J 4.1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Neo4J 4.1.3 CALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$C$56:$C$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8250</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2931</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DAB-4D42-B09C-497C7EACA6D6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="337773695"/>
-        <c:axId val="337775343"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="337773695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="337775343"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="337775343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="337773695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Aggregate query, invoice price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$B$89</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$90:$A$97</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neo4J 4.1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Neo4J 4.1.3 CALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$B$90:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>235817</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4282</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>753587</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>229256</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BE9-E848-8541-92D2AEB7DE94}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Taul1!$C$89</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg indexed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Taul1!$A$90:$A$97</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Neo4J 4.1.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Neo4J 4.1.3 CALL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Taul1!$C$90:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>236875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>957325</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>303365</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1BE9-E848-8541-92D2AEB7DE94}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="337951023"/>
-        <c:axId val="337990047"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="337951023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="337990047"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="337990047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fi-FI"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="337951023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fi-FI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
               <a:t>Query with defined key, invoice prices for customerId 0</a:t>
             </a:r>
           </a:p>
@@ -1961,6 +1133,832 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Long query, work price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Taul1!$A$56:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neo4J 4.1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Neo4J 4.1.3 CALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Taul1!$B$56:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F597-524F-B730-341F274EF263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg indexed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Taul1!$A$56:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neo4J 4.1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Neo4J 4.1.3 CALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Taul1!$C$56:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F597-524F-B730-341F274EF263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1924559280"/>
+        <c:axId val="1924560928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1924559280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924560928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1924560928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924559280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Aggregate query, invoice price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Taul1!$A$90:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neo4J 4.1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Neo4J 4.1.3 CALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Taul1!$B$90:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>235817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>753587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F130-C442-AF29-B0F853244D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Taul1!$C$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg indexed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Taul1!$A$90:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MariaDB 10.5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neo4J 4.1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Neo4J 4.1.3 CALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Taul1!$C$90:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>236875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>957325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>303365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F130-C442-AF29-B0F853244D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1923147856"/>
+        <c:axId val="1893825952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1923147856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1893825952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1893825952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1923147856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2627,7 +2625,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2831,22 +2829,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2951,8 +2950,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3084,19 +3083,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3130,7 +3130,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3334,22 +3334,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3454,8 +3455,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3587,19 +3588,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4178,22 +4180,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>818444</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104187</xdr:rowOff>
+      <xdr:colOff>1182981</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>45390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1427574</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>1647</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>322204</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>130998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Kaavio 1">
+        <xdr:cNvPr id="4" name="Kaavio 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59654ABF-4CA0-544B-950E-5D4ECB9A6430}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4463B5C-EE5F-A646-B7FB-D6EAAE80DD1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4213,23 +4215,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1418166</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104188</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442149</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>557389</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>166277</xdr:rowOff>
+      <xdr:colOff>1051279</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Kaavio 2">
+        <xdr:cNvPr id="8" name="Kaavio 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F14774C-7CA7-FC46-BFDF-D69156699814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA894D2-E54F-C64C-A030-EFDAF289131A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,23 +4251,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1182981</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>45390</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1135945</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>151224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>322204</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>130998</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333963</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>36924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Kaavio 3">
+        <xdr:cNvPr id="10" name="Kaavio 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4463B5C-EE5F-A646-B7FB-D6EAAE80DD1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D37E2-20D9-AE46-80A4-5D5B488821D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6995,36 +6997,12 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
@@ -7034,12 +7012,36 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documents/AppliedSciences/Basic_queries.xlsx
+++ b/documents/AppliedSciences/Basic_queries.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE9E37-C15D-FE4F-AAD8-D6484F209D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0411EB31-0474-474E-B2E6-0D391336A42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="8000" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Taul1!$A$90:$A$97</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Taul1!$B$89</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Taul1!$B$90:$B$97</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Taul1!$C$89</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Taul1!$C$90:$C$97</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -333,62 +326,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Short query, workhours price </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -746,62 +684,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Query with defined key, invoice prices for customerId 0</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1147,62 +1030,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Long query, work price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1560,62 +1388,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fi-FI"/>
-              <a:t>Aggregate query, invoice price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fi-FI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4587,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6997,39 +6770,20 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
     <mergeCell ref="A125:A126"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="C92:C93"/>
@@ -7040,8 +6794,27 @@
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documents/AppliedSciences/Basic_queries.xlsx
+++ b/documents/AppliedSciences/Basic_queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/graafitietokantaprojekti/documents/AppliedSciences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0411EB31-0474-474E-B2E6-0D391336A42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D00799-B576-9B4E-A2A9-D4D66C53EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="8000" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="24340" yWindow="13760" windowWidth="37940" windowHeight="20840" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Avg indexed</t>
+  </si>
+  <si>
+    <t>MySQL 8.0.29</t>
+  </si>
+  <si>
+    <t>MySQL 8.0.29 indexed</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +286,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,9 +371,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$24:$A$31</c:f>
+              <c:f>Taul1!$A$24:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>MySQL 5.1.41</c:v>
                 </c:pt>
@@ -369,9 +381,12 @@
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -379,10 +394,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$24:$B$31</c:f>
+              <c:f>Taul1!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>405</c:v>
                 </c:pt>
@@ -390,9 +405,12 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
@@ -400,7 +418,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9648-AA49-83A4-ADBC73F43117}"/>
+              <c16:uniqueId val="{00000000-D2E6-E745-9D55-C7C43A410C93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -430,9 +448,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$24:$A$31</c:f>
+              <c:f>Taul1!$A$24:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>MySQL 5.1.41</c:v>
                 </c:pt>
@@ -440,9 +458,12 @@
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -450,10 +471,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$24:$C$31</c:f>
+              <c:f>Taul1!$C$24:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>413</c:v>
                 </c:pt>
@@ -461,9 +482,12 @@
                   <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
@@ -471,7 +495,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9648-AA49-83A4-ADBC73F43117}"/>
+              <c16:uniqueId val="{00000001-D2E6-E745-9D55-C7C43A410C93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -484,11 +508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1984712784"/>
-        <c:axId val="1984601552"/>
+        <c:axId val="1509306368"/>
+        <c:axId val="1509205216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1984712784"/>
+        <c:axId val="1509306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +555,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1984601552"/>
+        <c:crossAx val="1509205216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -539,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1984601552"/>
+        <c:axId val="1509205216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +614,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1984712784"/>
+        <c:crossAx val="1509306368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -696,7 +720,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$124</c:f>
+              <c:f>Taul1!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -717,16 +741,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$125:$A$130</c:f>
+              <c:f>Taul1!$A$58:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -734,25 +764,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$125:$B$130</c:f>
+              <c:f>Taul1!$B$58:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>4952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>2197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>5337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6650-C841-92A3-A6BBB970FCC9}"/>
+              <c16:uniqueId val="{00000000-413C-A94F-9045-A8485D58F83C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -761,7 +797,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$124</c:f>
+              <c:f>Taul1!$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -782,16 +818,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$125:$A$130</c:f>
+              <c:f>Taul1!$A$58:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>MySQL 5.1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -799,25 +841,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$125:$C$130</c:f>
+              <c:f>Taul1!$C$58:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>4901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>2193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>5257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6650-C841-92A3-A6BBB970FCC9}"/>
+              <c16:uniqueId val="{00000001-413C-A94F-9045-A8485D58F83C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,11 +878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="336488095"/>
-        <c:axId val="335909215"/>
+        <c:axId val="1537875120"/>
+        <c:axId val="1537876768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="336488095"/>
+        <c:axId val="1537875120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +925,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335909215"/>
+        <c:crossAx val="1537876768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335909215"/>
+        <c:axId val="1537876768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +984,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336488095"/>
+        <c:crossAx val="1537875120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1042,7 +1090,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$55</c:f>
+              <c:f>Taul1!$B$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1063,9 +1111,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$56:$A$63</c:f>
+              <c:f>Taul1!$A$93:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>MySQL 5.1.41</c:v>
                 </c:pt>
@@ -1073,9 +1121,12 @@
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1083,28 +1134,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$56:$B$63</c:f>
+              <c:f>Taul1!$B$93:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4952</c:v>
+                  <c:v>235817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2197</c:v>
+                  <c:v>4282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6880</c:v>
+                  <c:v>7674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1859</c:v>
+                  <c:v>753587</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F597-524F-B730-341F274EF263}"/>
+              <c16:uniqueId val="{00000000-5553-3A47-B9D4-FAF8B853A5B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1113,7 +1167,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$55</c:f>
+              <c:f>Taul1!$C$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,9 +1188,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$56:$A$63</c:f>
+              <c:f>Taul1!$A$93:$A$102</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>MySQL 5.1.41</c:v>
                 </c:pt>
@@ -1144,9 +1198,12 @@
                   <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>MySQL 8.0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Neo4J 4.1.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Neo4J 4.1.3 CALL</c:v>
                 </c:pt>
               </c:strCache>
@@ -1154,28 +1211,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$56:$C$63</c:f>
+              <c:f>Taul1!$C$93:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4901</c:v>
+                  <c:v>236875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2193</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8250</c:v>
+                  <c:v>7615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2931</c:v>
+                  <c:v>957325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>303365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F597-524F-B730-341F274EF263}"/>
+              <c16:uniqueId val="{00000001-5553-3A47-B9D4-FAF8B853A5B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,11 +1248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1924559280"/>
-        <c:axId val="1924560928"/>
+        <c:axId val="1456409456"/>
+        <c:axId val="1455729296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1924559280"/>
+        <c:axId val="1456409456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1295,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924560928"/>
+        <c:crossAx val="1455729296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1924560928"/>
+        <c:axId val="1455729296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1354,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1924559280"/>
+        <c:crossAx val="1456409456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1400,7 +1460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$B$89</c:f>
+              <c:f>Taul1!$B$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1421,14 +1481,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$90:$A$97</c:f>
+              <c:f>Taul1!$A$128:$A$135</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
+                  <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
+                  <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
@@ -1441,28 +1501,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$B$90:$B$97</c:f>
+              <c:f>Taul1!$B$128:$B$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>235817</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4282</c:v>
+                  <c:v>5212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>753587</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229256</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F130-C442-AF29-B0F853244D9C}"/>
+              <c16:uniqueId val="{00000000-F7DF-FE4B-971B-1C7D8B0D9198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1471,7 +1531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Taul1!$C$89</c:f>
+              <c:f>Taul1!$C$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1492,14 +1552,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Taul1!$A$90:$A$97</c:f>
+              <c:f>Taul1!$A$128:$A$135</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>MySQL 5.1.41</c:v>
+                  <c:v>MariaDB 10.5.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MariaDB 10.5.6</c:v>
+                  <c:v>MySQL 8.0.29</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Neo4J 4.1.3</c:v>
@@ -1512,28 +1572,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Taul1!$C$90:$C$97</c:f>
+              <c:f>Taul1!$C$128:$C$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>236875</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3840</c:v>
+                  <c:v>5227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>957325</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303365</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F130-C442-AF29-B0F853244D9C}"/>
+              <c16:uniqueId val="{00000001-F7DF-FE4B-971B-1C7D8B0D9198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1546,11 +1606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1923147856"/>
-        <c:axId val="1893825952"/>
+        <c:axId val="1516223088"/>
+        <c:axId val="1507327232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923147856"/>
+        <c:axId val="1516223088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1653,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893825952"/>
+        <c:crossAx val="1507327232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1601,7 +1661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1893825952"/>
+        <c:axId val="1507327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1712,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1923147856"/>
+        <c:crossAx val="1516223088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3916,23 +3976,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>312795</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168863</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1135945</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>705556</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>82315</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333963</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Kaavio 5">
+        <xdr:cNvPr id="3" name="Kaavio 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE070FD2-A5CD-F44D-8E0E-84C9ED316FA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC73F27-47E1-80CD-8B04-5042577D45E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,23 +4012,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1182981</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>45390</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1135945</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>322204</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>130998</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333963</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>72201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Kaavio 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4463B5C-EE5F-A646-B7FB-D6EAAE80DD1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92172B1-A945-C36D-1C70-433F8869CCA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3989,22 +4049,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>442149</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21872</xdr:rowOff>
+      <xdr:colOff>1135945</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1051279</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>119239</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333963</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>1646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Kaavio 7">
+        <xdr:cNvPr id="5" name="Kaavio 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA894D2-E54F-C64C-A030-EFDAF289131A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDE1905-EC94-706B-3340-693CA4C13AE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,21 +4086,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1135945</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>151224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333963</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>36924</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>25165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Kaavio 9">
+        <xdr:cNvPr id="6" name="Kaavio 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D37E2-20D9-AE46-80A4-5D5B488821D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFF06CF-58B7-0D0C-978E-3D4539BC0D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,10 +4418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4373,15 +4433,15 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -4406,8 +4466,14 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4435,8 +4501,14 @@
       <c r="I4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>461</v>
+      </c>
+      <c r="K4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4464,8 +4536,14 @@
       <c r="I5">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>559</v>
+      </c>
+      <c r="K5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4493,8 +4571,14 @@
       <c r="I7">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>462</v>
+      </c>
+      <c r="K7">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4522,8 +4606,14 @@
       <c r="I8">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>462</v>
+      </c>
+      <c r="K8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4551,8 +4641,14 @@
       <c r="I9">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>462</v>
+      </c>
+      <c r="K9">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4580,8 +4676,14 @@
       <c r="I10">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>462</v>
+      </c>
+      <c r="K10">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4609,8 +4711,14 @@
       <c r="I11">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>462</v>
+      </c>
+      <c r="K11">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4638,8 +4746,14 @@
       <c r="I12">
         <v>147</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>462</v>
+      </c>
+      <c r="K12">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4667,8 +4781,14 @@
       <c r="I13">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>464</v>
+      </c>
+      <c r="K13">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4696,8 +4816,14 @@
       <c r="I14">
         <v>148</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>466</v>
+      </c>
+      <c r="K14">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4725,8 +4851,14 @@
       <c r="I15">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>466</v>
+      </c>
+      <c r="K15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -4754,8 +4886,14 @@
       <c r="I16">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>478</v>
+      </c>
+      <c r="K16">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -4783,8 +4921,14 @@
       <c r="I18" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>464</v>
+      </c>
+      <c r="K18" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4821,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4857,8 +5001,14 @@
         <f t="shared" si="0"/>
         <v>2.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>4.74</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -4886,15 +5036,21 @@
       <c r="I21">
         <v>2.3748684174075798</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>4.7370877129308004</v>
+      </c>
+      <c r="K21">
+        <v>2.3151673805580399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -4905,1910 +5061,2286 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="16">
         <f>B18</f>
         <v>405</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="16">
         <f>C18</f>
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+    <row r="25" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <f>D18</f>
         <v>209</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="16">
         <f>E18</f>
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="27" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14">
+        <f>J18</f>
+        <v>464</v>
+      </c>
+      <c r="C28" s="16">
+        <f>K18</f>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B30" s="14">
         <f>F18</f>
         <v>144</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C30" s="16">
         <f>G18</f>
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B32" s="14">
         <f>H18</f>
         <v>145</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C32" s="16">
         <f>I18</f>
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>26</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>4914</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>4884</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>2189</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>2188</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>6</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>6</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="J38">
+        <v>5240</v>
+      </c>
+      <c r="K38">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>5705</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>5388</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>2232</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>2230</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>9639</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>9734</v>
       </c>
-      <c r="H37">
+      <c r="H39">
         <v>3094</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>3131</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="J39">
+        <v>5671</v>
+      </c>
+      <c r="K39">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B41" s="2">
         <v>4929</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>4888</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="3">
         <v>2191</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>2188</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F41" s="3">
         <v>5527</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>5603</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <v>1785</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>1789</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="J41">
+        <v>5243</v>
+      </c>
+      <c r="K41">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B42" s="2">
         <v>4930</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>4891</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D42" s="3">
         <v>2191</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>2190</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F42" s="3">
         <v>5579</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <v>5614</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <v>1786</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>2731</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="J42">
+        <v>5244</v>
+      </c>
+      <c r="K42">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B43" s="2">
         <v>4933</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>4891</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D43" s="3">
         <v>2192</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>2190</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F43" s="3">
         <v>5580</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>5625</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>1787</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>3094</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="J43">
+        <v>5252</v>
+      </c>
+      <c r="K43">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B44" s="2">
         <v>4939</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>4895</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>2195</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>2191</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
         <v>6156</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>7911</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>1787</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>3095</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="J44">
+        <v>5267</v>
+      </c>
+      <c r="K44">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B45" s="2">
         <v>4944</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>4899</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D45" s="3">
         <v>2195</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>2191</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F45" s="3">
         <v>6407</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>9593</v>
-      </c>
-      <c r="H43">
-        <v>1790</v>
-      </c>
-      <c r="I43">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4946</v>
-      </c>
-      <c r="C44">
-        <v>4900</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2196</v>
-      </c>
-      <c r="E44">
-        <v>2192</v>
-      </c>
-      <c r="F44" s="3">
-        <v>6454</v>
-      </c>
-      <c r="G44">
-        <v>9595</v>
-      </c>
-      <c r="H44">
-        <v>1790</v>
-      </c>
-      <c r="I44">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4950</v>
-      </c>
-      <c r="C45">
-        <v>4900</v>
-      </c>
-      <c r="D45" s="3">
-        <v>2196</v>
-      </c>
-      <c r="E45">
-        <v>2193</v>
-      </c>
-      <c r="F45" s="3">
-        <v>7279</v>
-      </c>
-      <c r="G45">
-        <v>9624</v>
       </c>
       <c r="H45">
         <v>1790</v>
       </c>
       <c r="I45">
+        <v>3098</v>
+      </c>
+      <c r="J45">
+        <v>5271</v>
+      </c>
+      <c r="K45">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4946</v>
+      </c>
+      <c r="C46">
+        <v>4900</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2196</v>
+      </c>
+      <c r="E46">
+        <v>2192</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6454</v>
+      </c>
+      <c r="G46">
+        <v>9595</v>
+      </c>
+      <c r="H46">
+        <v>1790</v>
+      </c>
+      <c r="I46">
+        <v>3099</v>
+      </c>
+      <c r="J46">
+        <v>5276</v>
+      </c>
+      <c r="K46">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4950</v>
+      </c>
+      <c r="C47">
+        <v>4900</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2196</v>
+      </c>
+      <c r="E47">
+        <v>2193</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7279</v>
+      </c>
+      <c r="G47">
+        <v>9624</v>
+      </c>
+      <c r="H47">
+        <v>1790</v>
+      </c>
+      <c r="I47">
         <v>3100</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="J47">
+        <v>5282</v>
+      </c>
+      <c r="K47">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B48" s="2">
         <v>4956</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>4903</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D48" s="3">
         <v>2197</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>2196</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F48" s="3">
         <v>8026</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>9625</v>
       </c>
-      <c r="H46">
+      <c r="H48">
         <v>1798</v>
       </c>
-      <c r="I46">
+      <c r="I48">
         <v>3102</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="J48">
+        <v>5327</v>
+      </c>
+      <c r="K48">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B49" s="2">
         <v>4957</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>4903</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D49" s="3">
         <v>2199</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>2196</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F49" s="3">
         <v>8184</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>9634</v>
       </c>
-      <c r="H47">
+      <c r="H49">
         <v>1964</v>
       </c>
-      <c r="I47">
+      <c r="I49">
         <v>3104</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="J49">
+        <v>5557</v>
+      </c>
+      <c r="K49">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B50" s="2">
         <v>5042</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>4949</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D50" s="3">
         <v>2225</v>
       </c>
-      <c r="E48">
+      <c r="E50">
         <v>2207</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F50" s="3">
         <v>9609</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>9680</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>2317</v>
       </c>
-      <c r="I48">
+      <c r="I50">
         <v>3105</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="J50">
+        <v>5656</v>
+      </c>
+      <c r="K50">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>4952</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>4901</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D52" s="1">
         <v>2197</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>2193</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F52" s="1">
         <v>6880</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G52" s="1">
         <v>8250</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H52" s="1">
         <v>1859</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I52" s="1">
         <v>2931</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="J52" s="1">
+        <v>5337</v>
+      </c>
+      <c r="K52" s="1">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="4">
-        <f>(H50-B50)/H50</f>
+      <c r="B53" s="4">
+        <f>(H52-B52)/H52</f>
         <v>-1.6637977407208175</v>
       </c>
-      <c r="C51" s="4">
-        <f>(I50-C50)/I50</f>
+      <c r="C53" s="4">
+        <f>(I52-C52)/I52</f>
         <v>-0.67212555441828725</v>
       </c>
-      <c r="D51" s="6">
-        <f>(H50-D50)/H50</f>
+      <c r="D53" s="6">
+        <f>(H52-D52)/H52</f>
         <v>-0.18181818181818182</v>
       </c>
-      <c r="E51" s="4">
-        <f>(I50-E50)/I50</f>
+      <c r="E53" s="4">
+        <f>(I52-E52)/I52</f>
         <v>0.25179119754350049</v>
       </c>
-      <c r="F51" s="5">
-        <f>(H50-F50)/H50</f>
+      <c r="F53" s="5">
+        <f>(H52-F52)/H52</f>
         <v>-2.7009144701452392</v>
       </c>
-      <c r="G51" s="4">
-        <f>(I50-G50)/I50</f>
+      <c r="G53" s="4">
+        <f>(I52-G52)/I52</f>
         <v>-1.8147389969293757</v>
       </c>
-      <c r="H51" s="5">
-        <f>(H50-H50)/H50</f>
+      <c r="H53" s="5">
+        <f>(H52-H52)/H52</f>
         <v>0</v>
       </c>
-      <c r="I51" s="5">
-        <f>(I50-I50)/I50</f>
+      <c r="I53" s="5">
+        <f>(I52-I52)/I52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="7">
-        <f t="shared" ref="B52:G52" si="1">ROUND(B53,2)</f>
+      <c r="B54" s="7">
+        <f t="shared" ref="B54:G54" si="1">ROUND(B55,2)</f>
         <v>31.28</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C54" s="8">
         <f t="shared" si="1"/>
         <v>16.48</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="1"/>
         <v>9.43</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E54" s="9">
         <f t="shared" si="1"/>
         <v>5.14</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F54" s="9">
         <f t="shared" si="1"/>
         <v>1294.72</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G54" s="9">
         <f t="shared" si="1"/>
         <v>1797.56</v>
       </c>
-      <c r="H52" s="9">
-        <f>ROUND(H53,2)</f>
+      <c r="H54" s="9">
+        <f>ROUND(H55,2)</f>
         <v>161.22999999999999</v>
       </c>
-      <c r="I52" s="9">
-        <f>ROUND(I53,2)</f>
+      <c r="I54" s="9">
+        <f>ROUND(I55,2)</f>
         <v>396.45</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="J54">
+        <v>138.19</v>
+      </c>
+      <c r="K54">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B55" s="2">
         <v>31.280025575437101</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>16.476953601925299</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
         <v>9.4345111161098298</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <v>5.1419840528729699</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F55" s="3">
         <v>1294.7186914538599</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G55" s="3">
         <v>1797.55891141291</v>
       </c>
-      <c r="H53">
+      <c r="H55">
         <v>161.23411549669001</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I55" s="3">
         <v>396.45227959995299</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="J55">
+        <v>138.192076473291</v>
+      </c>
+      <c r="K55">
+        <v>12.0183193500588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="14">
-        <f>B50</f>
+      <c r="B58" s="16">
+        <f>B52</f>
         <v>4952</v>
       </c>
-      <c r="C56" s="14">
-        <f>C50</f>
+      <c r="C58" s="16">
+        <f>C52</f>
         <v>4901</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+    <row r="59" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="12">
-        <f>D50</f>
+      <c r="B60" s="14">
+        <f>D52</f>
         <v>2197</v>
       </c>
-      <c r="C58" s="14">
-        <f>E50</f>
+      <c r="C60" s="16">
+        <f>E52</f>
         <v>2193</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+    <row r="61" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="17"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="14">
+        <f>J52</f>
+        <v>5337</v>
+      </c>
+      <c r="C62" s="16">
+        <f>K52</f>
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="12">
-        <f>F50</f>
+      <c r="B64" s="14">
+        <f>F52</f>
         <v>6880</v>
       </c>
-      <c r="C60" s="14">
-        <f>G50</f>
+      <c r="C64" s="16">
+        <f>G52</f>
         <v>8250</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+    <row r="65" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="12">
-        <f>H50</f>
+      <c r="B66" s="14">
+        <f>H52</f>
         <v>1859</v>
       </c>
-      <c r="C62" s="14">
-        <f>I50</f>
+      <c r="C66" s="16">
+        <f>I52</f>
         <v>2931</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="15"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>24</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D71" t="s">
         <v>17</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E71" t="s">
         <v>25</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F71" t="s">
         <v>19</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G71" t="s">
         <v>26</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H71" t="s">
         <v>22</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I71" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="J71" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>1</v>
       </c>
-      <c r="B69">
+      <c r="B72">
         <v>233591</v>
       </c>
-      <c r="C69">
+      <c r="C72">
         <v>233761</v>
       </c>
-      <c r="D69">
+      <c r="D72">
         <v>3058</v>
       </c>
-      <c r="E69">
+      <c r="E72">
         <v>3063</v>
       </c>
-      <c r="F69">
+      <c r="F72">
         <v>239</v>
       </c>
-      <c r="G69">
+      <c r="G72">
         <v>8</v>
       </c>
-      <c r="H69">
+      <c r="H72">
         <v>11</v>
       </c>
-      <c r="I69">
+      <c r="I72">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="J72">
+        <v>7637</v>
+      </c>
+      <c r="K72">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>2</v>
       </c>
-      <c r="B70">
+      <c r="B73">
         <v>240366</v>
       </c>
-      <c r="C70">
+      <c r="C73">
         <v>243766</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>5735</v>
       </c>
-      <c r="E70">
+      <c r="E73">
         <v>5338</v>
       </c>
-      <c r="F70">
+      <c r="F73">
         <v>762722</v>
       </c>
-      <c r="G70">
+      <c r="G73">
         <v>992359</v>
       </c>
-      <c r="H70">
+      <c r="H73">
         <v>235858</v>
       </c>
-      <c r="I70">
+      <c r="I73">
         <v>585182</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="J73">
+        <v>8189</v>
+      </c>
+      <c r="K73">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>3</v>
       </c>
-      <c r="B72">
+      <c r="B75">
         <v>233647</v>
       </c>
-      <c r="C72">
+      <c r="C75">
         <v>234947</v>
       </c>
-      <c r="D72">
+      <c r="D75">
         <v>3061</v>
       </c>
-      <c r="E72">
+      <c r="E75">
         <v>3071</v>
       </c>
-      <c r="F72">
+      <c r="F75">
         <v>740349</v>
       </c>
-      <c r="G72">
+      <c r="G75">
         <v>935767</v>
       </c>
-      <c r="H72">
+      <c r="H75">
         <v>221588</v>
       </c>
-      <c r="I72">
+      <c r="I75">
         <v>230629</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="J75">
+        <v>7645</v>
+      </c>
+      <c r="K75">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>4</v>
       </c>
-      <c r="B73">
+      <c r="B76">
         <v>233701</v>
       </c>
-      <c r="C73">
+      <c r="C76">
         <v>235226</v>
       </c>
-      <c r="D73">
+      <c r="D76">
         <v>3063</v>
       </c>
-      <c r="E73">
+      <c r="E76">
         <v>3076</v>
       </c>
-      <c r="F73">
+      <c r="F76">
         <v>749485</v>
       </c>
-      <c r="G73">
+      <c r="G76">
         <v>940914</v>
       </c>
-      <c r="H73">
+      <c r="H76">
         <v>223377</v>
       </c>
-      <c r="I73">
+      <c r="I76">
         <v>241453</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="J76">
+        <v>7649</v>
+      </c>
+      <c r="K76">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>5</v>
       </c>
-      <c r="B74">
+      <c r="B77">
         <v>233722</v>
       </c>
-      <c r="C74">
+      <c r="C77">
         <v>235325</v>
       </c>
-      <c r="D74">
+      <c r="D77">
         <v>3074</v>
       </c>
-      <c r="E74">
+      <c r="E77">
         <v>3078</v>
       </c>
-      <c r="F74">
+      <c r="F77">
         <v>752311</v>
       </c>
-      <c r="G74">
+      <c r="G77">
         <v>953909</v>
       </c>
-      <c r="H74">
+      <c r="H77">
         <v>228991</v>
       </c>
-      <c r="I74">
+      <c r="I77">
         <v>243067</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="J77">
+        <v>7657</v>
+      </c>
+      <c r="K77">
+        <v>7607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B75">
+      <c r="B78">
         <v>233732</v>
       </c>
-      <c r="C75">
+      <c r="C78">
         <v>235685</v>
       </c>
-      <c r="D75">
+      <c r="D78">
         <v>3131</v>
       </c>
-      <c r="E75">
+      <c r="E78">
         <v>3117</v>
       </c>
-      <c r="F75">
+      <c r="F78">
         <v>753377</v>
       </c>
-      <c r="G75">
+      <c r="G78">
         <v>955013</v>
       </c>
-      <c r="H75">
+      <c r="H78">
         <v>229487</v>
       </c>
-      <c r="I75">
+      <c r="I78">
         <v>260573</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="J78">
+        <v>7668</v>
+      </c>
+      <c r="K78">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>7</v>
       </c>
-      <c r="B76">
+      <c r="B79">
         <v>233946</v>
       </c>
-      <c r="C76">
+      <c r="C79">
         <v>235931</v>
       </c>
-      <c r="D76">
+      <c r="D79">
         <v>4017</v>
       </c>
-      <c r="E76">
+      <c r="E79">
         <v>3220</v>
       </c>
-      <c r="F76">
+      <c r="F79">
         <v>753564</v>
       </c>
-      <c r="G76">
+      <c r="G79">
         <v>956098</v>
       </c>
-      <c r="H76">
+      <c r="H79">
         <v>229852</v>
       </c>
-      <c r="I76">
+      <c r="I79">
         <v>286919</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="J79">
+        <v>7669</v>
+      </c>
+      <c r="K79">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>8</v>
       </c>
-      <c r="B77">
+      <c r="B80">
         <v>234805</v>
       </c>
-      <c r="C77">
+      <c r="C80">
         <v>236645</v>
       </c>
-      <c r="D77">
+      <c r="D80">
         <v>5275</v>
       </c>
-      <c r="E77">
+      <c r="E80">
         <v>3507</v>
       </c>
-      <c r="F77">
+      <c r="F80">
         <v>754041</v>
       </c>
-      <c r="G77">
+      <c r="G80">
         <v>956877</v>
       </c>
-      <c r="H77">
+      <c r="H80">
         <v>230015</v>
       </c>
-      <c r="I77">
+      <c r="I80">
         <v>303112</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="J80">
+        <v>7670</v>
+      </c>
+      <c r="K80">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="B81">
         <v>237673</v>
       </c>
-      <c r="C78">
+      <c r="C81">
         <v>237039</v>
       </c>
-      <c r="D78">
+      <c r="D81">
         <v>5290</v>
       </c>
-      <c r="E78">
+      <c r="E81">
         <v>4059</v>
       </c>
-      <c r="F78">
+      <c r="F81">
         <v>754485</v>
       </c>
-      <c r="G78">
+      <c r="G81">
         <v>957382</v>
       </c>
-      <c r="H78">
+      <c r="H81">
         <v>230294</v>
       </c>
-      <c r="I78">
+      <c r="I81">
         <v>341721</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="J81">
+        <v>7670</v>
+      </c>
+      <c r="K81">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>10</v>
       </c>
-      <c r="B79">
+      <c r="B82">
         <v>238198</v>
       </c>
-      <c r="C79">
+      <c r="C82">
         <v>238070</v>
       </c>
-      <c r="D79">
+      <c r="D82">
         <v>5290</v>
       </c>
-      <c r="E79">
+      <c r="E82">
         <v>4623</v>
       </c>
-      <c r="F79">
+      <c r="F82">
         <v>757233</v>
       </c>
-      <c r="G79">
+      <c r="G82">
         <v>960602</v>
       </c>
-      <c r="H79">
+      <c r="H82">
         <v>231058</v>
       </c>
-      <c r="I79">
+      <c r="I82">
         <v>350218</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="J82">
+        <v>7672</v>
+      </c>
+      <c r="K82">
+        <v>7621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>15</v>
       </c>
-      <c r="B80">
+      <c r="B83">
         <v>238474</v>
       </c>
-      <c r="C80">
+      <c r="C83">
         <v>239235</v>
       </c>
-      <c r="D80">
+      <c r="D83">
         <v>5297</v>
       </c>
-      <c r="E80">
+      <c r="E83">
         <v>5318</v>
       </c>
-      <c r="F80">
+      <c r="F83">
         <v>760063</v>
       </c>
-      <c r="G80">
+      <c r="G83">
         <v>974858</v>
       </c>
-      <c r="H80">
+      <c r="H83">
         <v>232967</v>
       </c>
-      <c r="I80">
+      <c r="I83">
         <v>352328</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="J83">
+        <v>7680</v>
+      </c>
+      <c r="K83">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>16</v>
       </c>
-      <c r="B81">
+      <c r="B84">
         <v>240281</v>
       </c>
-      <c r="C81">
+      <c r="C84">
         <v>240647</v>
       </c>
-      <c r="D81">
+      <c r="D84">
         <v>5323</v>
       </c>
-      <c r="E81">
+      <c r="E84">
         <v>5331</v>
       </c>
-      <c r="F81">
+      <c r="F84">
         <v>760964</v>
       </c>
-      <c r="G81">
+      <c r="G84">
         <v>981837</v>
       </c>
-      <c r="H81">
+      <c r="H84">
         <v>234939</v>
       </c>
-      <c r="I81">
+      <c r="I84">
         <v>423634</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="J84">
+        <v>7764</v>
+      </c>
+      <c r="K84">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B84">
+      <c r="B87">
         <v>235817</v>
       </c>
-      <c r="C84">
+      <c r="C87">
         <v>236875</v>
       </c>
-      <c r="D84">
+      <c r="D87">
         <v>4282</v>
       </c>
-      <c r="E84">
+      <c r="E87">
         <v>3840</v>
       </c>
-      <c r="F84">
+      <c r="F87">
         <v>753587</v>
       </c>
-      <c r="G84">
+      <c r="G87">
         <v>957325</v>
       </c>
-      <c r="H84">
+      <c r="H87">
         <v>229256</v>
       </c>
-      <c r="I84">
+      <c r="I87">
         <v>303365</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="J87">
+        <v>7674</v>
+      </c>
+      <c r="K87">
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="4">
-        <f>(H84-B84)/H84</f>
+      <c r="B88" s="4">
+        <f>(H87-B87)/H87</f>
         <v>-2.8618662106989566E-2</v>
       </c>
-      <c r="C85" s="4">
-        <f>(I84-C84)/I84</f>
+      <c r="C88" s="4">
+        <f>(I87-C87)/I87</f>
         <v>0.21917492129942479</v>
       </c>
-      <c r="D85" s="6">
-        <f>(H84-D84)/H84</f>
+      <c r="D88" s="6">
+        <f>(H87-D87)/H87</f>
         <v>0.98132219004082777</v>
       </c>
-      <c r="E85" s="4">
-        <f>(I84-E84)/I84</f>
+      <c r="E88" s="4">
+        <f>(I87-E87)/I87</f>
         <v>0.98734198078222601</v>
       </c>
-      <c r="F85" s="5">
-        <f>(H84-F84)/H84</f>
+      <c r="F88" s="5">
+        <f>(H87-F87)/H87</f>
         <v>-2.2870982656942456</v>
       </c>
-      <c r="G85" s="4">
-        <f>(I84-G84)/I84</f>
+      <c r="G88" s="4">
+        <f>(I87-G87)/I87</f>
         <v>-2.1556870436602771</v>
       </c>
-      <c r="H85" s="5">
-        <f>(H84-H84)/H84</f>
+      <c r="H88" s="5">
+        <f>(H87-H87)/H87</f>
         <v>0</v>
       </c>
-      <c r="I85" s="5">
-        <f>(I84-I84)/I84</f>
+      <c r="I88" s="5">
+        <f>(I87-I87)/I87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="7">
-        <f t="shared" ref="B86:G86" si="2">ROUND(B87,2)</f>
+      <c r="B89" s="7">
+        <f t="shared" ref="B89:G89" si="2">ROUND(B90,2)</f>
         <v>2419.67</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C89" s="8">
         <f t="shared" si="2"/>
         <v>1801.43</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="2"/>
         <v>1047.05</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E89" s="9">
         <f t="shared" si="2"/>
         <v>885.57</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F89" s="9">
         <f t="shared" si="2"/>
         <v>5517.32</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G89" s="9">
         <f t="shared" si="2"/>
         <v>12929.71</v>
       </c>
-      <c r="H86" s="9">
-        <f>ROUND(H87,2)</f>
+      <c r="H89" s="9">
+        <f>ROUND(H90,2)</f>
         <v>3805.37</v>
       </c>
-      <c r="I86" s="9">
-        <f>ROUND(I87,2)</f>
+      <c r="I89" s="9">
+        <f>ROUND(I90,2)</f>
         <v>59489.120000000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="J89">
+        <v>31.6</v>
+      </c>
+      <c r="K89" s="9">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>18</v>
       </c>
-      <c r="B87">
+      <c r="B90">
         <v>2419.67404623019</v>
       </c>
-      <c r="C87">
+      <c r="C90">
         <v>1801.43070918645</v>
       </c>
-      <c r="D87">
+      <c r="D90">
         <v>1047.05180865131</v>
       </c>
-      <c r="E87">
+      <c r="E90">
         <v>885.56953425465099</v>
       </c>
-      <c r="F87">
+      <c r="F90">
         <v>5517.3217560696903</v>
       </c>
-      <c r="G87">
+      <c r="G90">
         <v>12929.7143205099</v>
       </c>
-      <c r="H87">
+      <c r="H90">
         <v>3805.3698847812402</v>
       </c>
-      <c r="I87">
+      <c r="I90">
         <v>59489.120439286999</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="J90">
+        <v>31.601265797432799</v>
+      </c>
+      <c r="K90">
+        <v>10.5475115548644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B92" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12" t="s">
+    <row r="93" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="14">
-        <f>B84</f>
+      <c r="B93" s="16">
+        <f>B87</f>
         <v>235817</v>
       </c>
-      <c r="C90" s="14">
-        <f>C84</f>
+      <c r="C93" s="16">
+        <f>C87</f>
         <v>236875</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+    <row r="94" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="12">
-        <f>D84</f>
+      <c r="B95" s="14">
+        <f>D87</f>
         <v>4282</v>
       </c>
-      <c r="C92" s="14">
-        <f>E84</f>
+      <c r="C95" s="16">
+        <f>E87</f>
         <v>3840</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="15"/>
-    </row>
-    <row r="94" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
+    <row r="96" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="14">
+        <f>J87</f>
+        <v>7674</v>
+      </c>
+      <c r="C97" s="16">
+        <f>K87</f>
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="12">
-        <f>F84</f>
+      <c r="B99" s="14">
+        <f>F87</f>
         <v>753587</v>
       </c>
-      <c r="C94" s="14">
-        <f>G84</f>
+      <c r="C99" s="16">
+        <f>G87</f>
         <v>957325</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12" t="s">
+    <row r="100" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="17"/>
+    </row>
+    <row r="101" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="12">
-        <f>H84</f>
+      <c r="B101" s="14">
+        <f>H87</f>
         <v>229256</v>
       </c>
-      <c r="C96" s="14">
-        <f>I84</f>
+      <c r="C101" s="16">
+        <f>I87</f>
         <v>303365</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="15"/>
-    </row>
-    <row r="99" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="105" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C106" t="s">
         <v>24</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D106" t="s">
         <v>17</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E106" t="s">
         <v>25</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F106" t="s">
         <v>19</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G106" t="s">
         <v>26</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H106" t="s">
         <v>23</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I106" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="J106" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>1</v>
       </c>
-      <c r="B104">
+      <c r="B107">
         <v>3546460</v>
       </c>
-      <c r="C104">
+      <c r="C107">
         <v>3537655</v>
       </c>
-      <c r="D104">
+      <c r="D107">
         <v>42</v>
       </c>
-      <c r="E104">
+      <c r="E107">
         <v>25</v>
       </c>
-      <c r="F104">
+      <c r="F107">
         <v>11</v>
       </c>
-      <c r="G104">
+      <c r="G107">
         <v>12</v>
       </c>
-      <c r="H104">
+      <c r="H107">
         <v>7</v>
       </c>
-      <c r="I104">
+      <c r="I107">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="J107">
+        <v>5170</v>
+      </c>
+      <c r="K107">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>2</v>
       </c>
-      <c r="B105">
+      <c r="B108">
         <v>7071879</v>
       </c>
-      <c r="C105">
+      <c r="C108">
         <v>3807921</v>
       </c>
-      <c r="D105">
+      <c r="D108">
         <v>56</v>
       </c>
-      <c r="E105">
+      <c r="E108">
         <v>131</v>
       </c>
-      <c r="F105">
+      <c r="F108">
         <v>299</v>
       </c>
-      <c r="G105">
+      <c r="G108">
         <v>182</v>
       </c>
-      <c r="H105">
+      <c r="H108">
         <v>146</v>
       </c>
-      <c r="I105">
+      <c r="I108">
         <v>168</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="J108">
+        <v>5483</v>
+      </c>
+      <c r="K108">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B111" s="3">
         <v>3555773</v>
       </c>
-      <c r="C108">
+      <c r="C111">
         <v>3543231</v>
-      </c>
-      <c r="D108" s="3">
-        <v>42</v>
-      </c>
-      <c r="E108">
-        <v>25</v>
-      </c>
-      <c r="F108" s="2">
-        <v>49</v>
-      </c>
-      <c r="G108">
-        <v>45</v>
-      </c>
-      <c r="H108">
-        <v>58</v>
-      </c>
-      <c r="I108">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="3">
-        <v>3557020</v>
-      </c>
-      <c r="C109">
-        <v>3547278</v>
-      </c>
-      <c r="D109" s="3">
-        <v>42</v>
-      </c>
-      <c r="E109">
-        <v>25</v>
-      </c>
-      <c r="F109" s="3">
-        <v>50</v>
-      </c>
-      <c r="G109">
-        <v>45</v>
-      </c>
-      <c r="H109">
-        <v>58</v>
-      </c>
-      <c r="I109">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" s="3">
-        <v>3731068</v>
-      </c>
-      <c r="C110">
-        <v>3554355</v>
-      </c>
-      <c r="D110" s="3">
-        <v>42</v>
-      </c>
-      <c r="E110">
-        <v>27</v>
-      </c>
-      <c r="F110" s="3">
-        <v>50</v>
-      </c>
-      <c r="G110">
-        <v>46</v>
-      </c>
-      <c r="H110">
-        <v>58</v>
-      </c>
-      <c r="I110">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="3">
-        <v>3826603</v>
-      </c>
-      <c r="C111">
-        <v>3556549</v>
       </c>
       <c r="D111" s="3">
         <v>42</v>
       </c>
       <c r="E111">
-        <v>27</v>
-      </c>
-      <c r="F111" s="3">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="F111" s="2">
+        <v>49</v>
       </c>
       <c r="G111">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H111">
         <v>58</v>
       </c>
       <c r="I111">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J111">
+        <v>5172</v>
+      </c>
+      <c r="K111">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B112" s="3">
-        <v>3846190</v>
+        <v>3557020</v>
       </c>
       <c r="C112">
-        <v>3563745</v>
+        <v>3547278</v>
       </c>
       <c r="D112" s="3">
         <v>42</v>
       </c>
       <c r="E112">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F112" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G112">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I112">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J112">
+        <v>5180</v>
+      </c>
+      <c r="K112">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B113" s="3">
-        <v>3860709</v>
+        <v>3731068</v>
       </c>
       <c r="C113">
-        <v>3578619</v>
+        <v>3554355</v>
       </c>
       <c r="D113" s="3">
         <v>42</v>
       </c>
       <c r="E113">
+        <v>27</v>
+      </c>
+      <c r="F113" s="3">
+        <v>50</v>
+      </c>
+      <c r="G113">
+        <v>46</v>
+      </c>
+      <c r="H113">
+        <v>58</v>
+      </c>
+      <c r="I113">
+        <v>57</v>
+      </c>
+      <c r="J113">
+        <v>5185</v>
+      </c>
+      <c r="K113">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3826603</v>
+      </c>
+      <c r="C114">
+        <v>3556549</v>
+      </c>
+      <c r="D114" s="3">
+        <v>42</v>
+      </c>
+      <c r="E114">
+        <v>27</v>
+      </c>
+      <c r="F114" s="3">
+        <v>51</v>
+      </c>
+      <c r="G114">
+        <v>46</v>
+      </c>
+      <c r="H114">
+        <v>58</v>
+      </c>
+      <c r="I114">
+        <v>57</v>
+      </c>
+      <c r="J114">
+        <v>5194</v>
+      </c>
+      <c r="K114">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="3">
+        <v>3846190</v>
+      </c>
+      <c r="C115">
+        <v>3563745</v>
+      </c>
+      <c r="D115" s="3">
+        <v>42</v>
+      </c>
+      <c r="E115">
         <v>28</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F115" s="3">
         <v>51</v>
       </c>
-      <c r="G113">
-        <v>48</v>
-      </c>
-      <c r="H113">
-        <v>59</v>
-      </c>
-      <c r="I113">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="3">
-        <v>3883208</v>
-      </c>
-      <c r="C114">
-        <v>3671717</v>
-      </c>
-      <c r="D114" s="3">
-        <v>43</v>
-      </c>
-      <c r="E114">
-        <v>29</v>
-      </c>
-      <c r="F114" s="3">
-        <v>52</v>
-      </c>
-      <c r="G114">
-        <v>48</v>
-      </c>
-      <c r="H114">
-        <v>59</v>
-      </c>
-      <c r="I114">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="3">
-        <v>4170996</v>
-      </c>
-      <c r="C115">
-        <v>3672794</v>
-      </c>
-      <c r="D115" s="3">
-        <v>43</v>
-      </c>
-      <c r="E115">
-        <v>36</v>
-      </c>
-      <c r="F115" s="3">
-        <v>54</v>
-      </c>
       <c r="G115">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H115">
         <v>59</v>
       </c>
       <c r="I115">
+        <v>57</v>
+      </c>
+      <c r="J115">
+        <v>5196</v>
+      </c>
+      <c r="K115">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3860709</v>
+      </c>
+      <c r="C116">
+        <v>3578619</v>
+      </c>
+      <c r="D116" s="3">
+        <v>42</v>
+      </c>
+      <c r="E116">
+        <v>28</v>
+      </c>
+      <c r="F116" s="3">
+        <v>51</v>
+      </c>
+      <c r="G116">
+        <v>48</v>
+      </c>
+      <c r="H116">
         <v>59</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="3">
-        <v>4181960</v>
-      </c>
-      <c r="C116">
-        <v>3696650</v>
-      </c>
-      <c r="D116" s="3">
-        <v>43</v>
-      </c>
-      <c r="E116">
-        <v>39</v>
-      </c>
-      <c r="F116" s="3">
-        <v>59</v>
-      </c>
-      <c r="G116">
-        <v>61</v>
-      </c>
-      <c r="H116">
-        <v>60</v>
-      </c>
       <c r="I116">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="J116">
+        <v>5201</v>
+      </c>
+      <c r="K116">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B117" s="3">
-        <v>5524660</v>
+        <v>3883208</v>
       </c>
       <c r="C117">
-        <v>3713250</v>
+        <v>3671717</v>
       </c>
       <c r="D117" s="3">
         <v>43</v>
       </c>
       <c r="E117">
+        <v>29</v>
+      </c>
+      <c r="F117" s="3">
+        <v>52</v>
+      </c>
+      <c r="G117">
+        <v>48</v>
+      </c>
+      <c r="H117">
+        <v>59</v>
+      </c>
+      <c r="I117">
+        <v>58</v>
+      </c>
+      <c r="J117">
+        <v>5224</v>
+      </c>
+      <c r="K117">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="3">
+        <v>4170996</v>
+      </c>
+      <c r="C118">
+        <v>3672794</v>
+      </c>
+      <c r="D118" s="3">
+        <v>43</v>
+      </c>
+      <c r="E118">
+        <v>36</v>
+      </c>
+      <c r="F118" s="3">
+        <v>54</v>
+      </c>
+      <c r="G118">
+        <v>48</v>
+      </c>
+      <c r="H118">
+        <v>59</v>
+      </c>
+      <c r="I118">
+        <v>59</v>
+      </c>
+      <c r="J118">
+        <v>5234</v>
+      </c>
+      <c r="K118">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="3">
+        <v>4181960</v>
+      </c>
+      <c r="C119">
+        <v>3696650</v>
+      </c>
+      <c r="D119" s="3">
+        <v>43</v>
+      </c>
+      <c r="E119">
+        <v>39</v>
+      </c>
+      <c r="F119" s="3">
+        <v>59</v>
+      </c>
+      <c r="G119">
+        <v>61</v>
+      </c>
+      <c r="H119">
+        <v>60</v>
+      </c>
+      <c r="I119">
+        <v>60</v>
+      </c>
+      <c r="J119">
+        <v>5249</v>
+      </c>
+      <c r="K119">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5524660</v>
+      </c>
+      <c r="C120">
+        <v>3713250</v>
+      </c>
+      <c r="D120" s="3">
+        <v>43</v>
+      </c>
+      <c r="E120">
         <v>40</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F120" s="3">
         <v>98</v>
       </c>
-      <c r="G117">
+      <c r="G120">
         <v>74</v>
       </c>
-      <c r="H117">
+      <c r="H120">
         <v>61</v>
       </c>
-      <c r="I117">
+      <c r="I120">
         <v>81</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="J120">
+        <v>5288</v>
+      </c>
+      <c r="K120">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B122" s="2">
         <v>4013818</v>
       </c>
-      <c r="C119">
+      <c r="C122">
         <v>3609818</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D122" s="3">
         <v>42</v>
       </c>
-      <c r="E119">
+      <c r="E122">
         <v>30</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F122" s="1">
         <v>56</v>
       </c>
-      <c r="G119">
+      <c r="G122">
         <v>50</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H122" s="1">
         <v>58</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I122" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="J122" s="1">
+        <v>5212</v>
+      </c>
+      <c r="K122" s="1">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="4">
-        <f>(H119-B119)/H119</f>
+      <c r="B123" s="4">
+        <f>(H122-B122)/H122</f>
         <v>-69202.758620689652</v>
       </c>
-      <c r="C120" s="4">
-        <f>(C119-I119)/C119</f>
+      <c r="C123" s="4">
+        <f>(C122-I122)/C122</f>
         <v>0.99998365568568826</v>
       </c>
-      <c r="D120" s="6">
-        <f>(H119-D119)/H119</f>
+      <c r="D123" s="6">
+        <f>(H122-D122)/H122</f>
         <v>0.27586206896551724</v>
       </c>
-      <c r="E120" s="4">
-        <f>(I119-E119)/I119</f>
+      <c r="E123" s="4">
+        <f>(I122-E122)/I122</f>
         <v>0.49152542372881358</v>
       </c>
-      <c r="F120" s="5">
-        <f>(H119-F119)/H119</f>
+      <c r="F123" s="5">
+        <f>(H122-F122)/H122</f>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="G120" s="4">
-        <f>(I119-G119)/I119</f>
+      <c r="G123" s="4">
+        <f>(I122-G122)/I122</f>
         <v>0.15254237288135594</v>
       </c>
-      <c r="H120" s="5">
-        <f>(H119-H119)/H119</f>
+      <c r="H123" s="5">
+        <f>(H122-H122)/H122</f>
         <v>0</v>
       </c>
-      <c r="I120" s="5">
-        <f>(I119-I119)/I119</f>
+      <c r="I123" s="5">
+        <f>(I122-I122)/I122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="7">
-        <f t="shared" ref="B121:G121" si="3">ROUND(B122,2)</f>
+      <c r="B124" s="7">
+        <f t="shared" ref="B124:G124" si="3">ROUND(B125,2)</f>
         <v>542004.37</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C124" s="8">
         <f t="shared" si="3"/>
         <v>65871.350000000006</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D124" s="8">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E124" s="9">
         <f t="shared" si="3"/>
         <v>5.41</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F124" s="9">
         <f t="shared" si="3"/>
         <v>14.09</v>
       </c>
-      <c r="G121" s="9">
+      <c r="G124" s="9">
         <f t="shared" si="3"/>
         <v>8.9600000000000009</v>
       </c>
-      <c r="H121" s="9">
-        <f>ROUND(H122,2)</f>
+      <c r="H124" s="9">
+        <f>ROUND(H125,2)</f>
         <v>0.94</v>
       </c>
-      <c r="I121" s="9">
-        <f>ROUND(I122,2)</f>
+      <c r="I124" s="9">
+        <f>ROUND(I125,2)</f>
         <v>7.13</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="J124">
+        <v>34.39</v>
+      </c>
+      <c r="K124" s="9">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B125" s="2">
         <v>542004.36739256</v>
       </c>
-      <c r="C122">
+      <c r="C125">
         <v>65871.349953982193</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D125" s="3">
         <v>0.48989794855663499</v>
       </c>
-      <c r="E122">
+      <c r="E125">
         <v>5.4074023338383004</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F125" s="1">
         <v>14.094325099131201</v>
       </c>
-      <c r="G122">
+      <c r="G125">
         <v>8.9560035730229597</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H125" s="1">
         <v>0.94339811320566003</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I125" s="1">
         <v>7.1337227308047204</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="D123" s="3"/>
-      <c r="F123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="J125">
+        <v>34.3890971094037</v>
+      </c>
+      <c r="K125">
+        <v>5.96992462263972</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="F126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B127" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B125" s="12">
-        <f>D119</f>
+      <c r="B128" s="14">
+        <f>D122</f>
         <v>42</v>
       </c>
-      <c r="C125" s="14">
-        <f>E119</f>
+      <c r="C128" s="16">
+        <f>E122</f>
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="15"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
+    <row r="129" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="17"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="14">
+        <f>J122</f>
+        <v>5212</v>
+      </c>
+      <c r="C130" s="16">
+        <f>K122</f>
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="17"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="12">
-        <f>F119</f>
+      <c r="B132" s="14">
+        <f>F122</f>
         <v>56</v>
       </c>
-      <c r="C127" s="14">
-        <f>G119</f>
+      <c r="C132" s="16">
+        <f>G122</f>
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="15"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
+    <row r="133" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B129" s="12">
-        <f>H119</f>
+      <c r="B134" s="14">
+        <f>H122</f>
         <v>58</v>
       </c>
-      <c r="C129" s="14">
-        <f>I119</f>
+      <c r="C134" s="16">
+        <f>I122</f>
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="15"/>
+    <row r="135" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
+  <mergeCells count="57">
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A94:A95"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
